--- a/过程性文件/data/第三问数据/分界值/分界值（风化前）.xlsx
+++ b/过程性文件/data/第三问数据/分界值/分界值（风化前）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.05</v>
+        <v>97.56291034409617</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.52</v>
+        <v>1.105181425208066</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.58558687560351</v>
+        <v>6.4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.34</v>
+        <v>13.65</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.04</v>
+        <v>3.048953529101575</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.460000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.10396916881081</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.73277738803766</v>
+        <v>36.79263970495494</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9114575659657977</v>
+        <v>1.12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
